--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,253 +268,257 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users.</t>
+  </si>
+  <si>
+    <t>Organization label locations in registries, need to keep track of those.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>The operational status of the location (typically only for a bed/room)</t>
+  </si>
+  <si>
+    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
+  </si>
+  <si>
+    <t>The operational status if the location (where typically a bed/room).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Location.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Location.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Location.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Location.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Location.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Location.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Location.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Location.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users.</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>The operational status of the location (typically only for a bed/room)</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
-  </si>
-  <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Location.name</t>
   </si>
   <si>
     <t>Name of the location as used by humans</t>
@@ -2650,16 +2654,16 @@
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2724,7 +2728,7 @@
         <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -2732,7 +2736,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2755,19 +2759,19 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2816,7 +2820,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2831,7 +2835,7 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -2839,7 +2843,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2862,17 +2866,17 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2921,7 +2925,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2936,7 +2940,7 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -2944,7 +2948,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2970,16 +2974,16 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3007,10 +3011,10 @@
         <v>149</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3028,7 +3032,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3043,15 +3047,15 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3074,13 +3078,13 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3107,13 +3111,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="Y18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3131,7 +3135,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3146,15 +3150,15 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3177,13 +3181,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3234,7 +3238,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3249,7 +3253,7 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3257,7 +3261,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3280,19 +3284,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3341,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3356,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3364,7 +3368,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3387,17 +3391,17 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3422,13 +3426,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3446,7 +3450,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3461,15 +3465,15 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3492,17 +3496,17 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3551,7 +3555,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3566,7 +3570,7 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3574,7 +3578,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3597,13 +3601,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3654,7 +3658,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3677,7 +3681,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3706,7 +3710,7 @@
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>131</v>
@@ -3759,7 +3763,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3782,11 +3786,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3808,10 +3812,10 @@
         <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>131</v>
@@ -3866,7 +3870,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3889,7 +3893,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3912,13 +3916,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3969,7 +3973,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>82</v>
@@ -3984,7 +3988,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -3992,7 +3996,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4015,13 +4019,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4072,7 +4076,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>82</v>
@@ -4087,7 +4091,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4095,7 +4099,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4118,13 +4122,13 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4175,7 +4179,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4190,7 +4194,7 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4198,7 +4202,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4221,19 +4225,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4282,7 +4286,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4297,7 +4301,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4305,7 +4309,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4328,17 +4332,17 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4387,7 +4391,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4402,7 +4406,7 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4410,7 +4414,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4433,16 +4437,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4492,7 +4496,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4507,7 +4511,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4515,7 +4519,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4538,13 +4542,13 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4595,7 +4599,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4618,7 +4622,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4647,7 +4651,7 @@
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>131</v>
@@ -4700,7 +4704,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4723,11 +4727,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4749,10 +4753,10 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>131</v>
@@ -4807,7 +4811,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4830,7 +4834,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4856,10 +4860,10 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4889,10 +4893,10 @@
         <v>149</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -4910,7 +4914,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -4925,7 +4929,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -4933,7 +4937,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4956,13 +4960,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5013,7 +5017,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5028,7 +5032,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5036,7 +5040,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5059,13 +5063,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5116,7 +5120,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5131,7 +5135,7 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5139,7 +5143,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5162,13 +5166,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5219,7 +5223,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5234,7 +5238,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5242,7 +5246,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5265,13 +5269,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5322,7 +5326,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5345,7 +5349,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5368,17 +5372,17 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5427,7 +5431,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/location-pemh-profile</t>
+    <t>http://example.com/fhir/example/StructureDefinition/location-pemh-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T14:33:47+00:00</t>
+    <t>2023-02-09T20:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T20:39:01+00:00</t>
+    <t>2023-02-09T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$40</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,19 +458,239 @@
 </t>
   </si>
   <si>
+    <t>Código SGES do local de prescrição</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users.</t>
+  </si>
+  <si>
+    <t>Organization label locations in registries, need to keep track of those.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES</t>
+  </si>
+  <si>
+    <t>SGES</t>
+  </si>
+  <si>
     <t>Unique code or number identifying the location to its users</t>
   </si>
   <si>
-    <t>Unique code or number identifying the location to its users.</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>Location.identifier:SGES.id</t>
+  </si>
+  <si>
+    <t>Location.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES.use</t>
+  </si>
+  <si>
+    <t>Location.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES.type</t>
+  </si>
+  <si>
+    <t>Location.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES.system</t>
+  </si>
+  <si>
+    <t>Location.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://spms.min-saude.pt/sges/identifiers/entity-id</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES.value</t>
+  </si>
+  <si>
+    <t>Location.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES.period</t>
+  </si>
+  <si>
+    <t>Location.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier:SGES.assigner</t>
+  </si>
+  <si>
+    <t>Location.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>Location.status</t>
@@ -480,9 +703,6 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Indicates whether the location is still in use.</t>
@@ -519,17 +739,10 @@
     <t>http://hl7.org/fhir/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Location.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans</t>
+    <t>DESIGNAÇÃO DO LOCAL DA PRESCRIÇÃO, Nome do local de prescrição</t>
   </si>
   <si>
     <t>Name of the location as used by humans. Does not need to be unique.</t>
@@ -599,11 +812,7 @@
     <t>Location.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of function performed</t>
+    <t>Locais de prescrição definidos pelo PRVR.</t>
   </si>
   <si>
     <t>Indicates the type of function performed at the location.</t>
@@ -700,22 +909,7 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Location.position.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -768,11 +962,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization responsible for provisioning and upkeep</t>
+    <t>Referência para um resource que contém informa ções da instituição à qual pertence este local.</t>
   </si>
   <si>
     <t>The organization responsible for the provisioning and upkeep of the location.</t>
@@ -948,6 +1138,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1124,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1152,23 +1357,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="59.84375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.359375" customWidth="true" bestFit="true"/>
   </cols>
@@ -1292,7 +1497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1401,7 +1606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>84</v>
       </c>
@@ -1512,7 +1717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>92</v>
       </c>
@@ -1621,7 +1826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -1732,7 +1937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1843,7 +2048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -1954,7 +2159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -2065,7 +2270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
@@ -2176,7 +2381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -2287,7 +2492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -2362,16 +2567,14 @@
         <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>140</v>
@@ -2389,23 +2592,25 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2417,27 +2622,27 @@
         <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2461,60 +2666,60 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="B13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2534,16 +2739,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2570,71 +2775,71 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2643,19 +2848,19 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2693,16 +2898,16 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>164</v>
@@ -2711,7 +2916,7 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -2720,7 +2925,7 @@
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -2729,12 +2934,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2745,31 +2950,31 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2794,13 +2999,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -2818,13 +3023,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -2833,7 +3038,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2842,12 +3047,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2870,17 +3075,19 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2905,13 +3112,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -2929,23 +3136,23 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
       </c>
@@ -2953,12 +3160,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2966,7 +3173,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>85</v>
@@ -2975,25 +3182,23 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3003,10 +3208,10 @@
         <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>76</v>
@@ -3018,13 +3223,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3042,7 +3247,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3057,21 +3262,21 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3094,15 +3299,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3115,7 +3322,7 @@
         <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>76</v>
@@ -3127,13 +3334,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3151,7 +3358,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3166,21 +3373,21 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3191,7 +3398,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3200,16 +3407,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3260,13 +3467,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3275,7 +3482,7 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3284,12 +3491,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3309,23 +3516,21 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3373,7 +3578,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3388,7 +3593,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3397,12 +3602,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3419,24 +3624,24 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3460,13 +3665,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3484,7 +3689,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3499,21 +3704,21 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3533,21 +3738,19 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3571,13 +3774,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3595,7 +3798,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3607,24 +3810,24 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3644,18 +3847,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3704,7 +3909,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3719,7 +3924,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3728,16 +3933,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3756,18 +3961,20 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3815,7 +4022,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3830,7 +4037,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3839,46 +4046,46 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3926,13 +4133,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -3941,7 +4148,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -3950,12 +4157,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3963,7 +4170,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>85</v>
@@ -3972,22 +4179,26 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4011,13 +4222,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4035,10 +4246,10 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>85</v>
@@ -4050,21 +4261,21 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4072,7 +4283,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4084,16 +4295,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4120,13 +4331,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4144,10 +4355,10 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>85</v>
@@ -4159,21 +4370,21 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4184,7 +4395,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4196,13 +4407,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4253,13 +4464,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4268,7 +4479,7 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4277,12 +4488,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4302,22 +4513,22 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4366,7 +4577,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4381,7 +4592,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4390,12 +4601,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4415,20 +4626,20 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4453,13 +4664,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4477,7 +4688,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4492,21 +4703,21 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4517,7 +4728,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4529,17 +4740,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4588,31 +4799,1042 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AI31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM40">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI39">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-location-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-location-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
